--- a/biology/Médecine/Jerzy_Aleksandrowicz/Jerzy_Aleksandrowicz.xlsx
+++ b/biology/Médecine/Jerzy_Aleksandrowicz/Jerzy_Aleksandrowicz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jerzy Aleksandrowicz, né le 7 juillet 1936 à Cracovie et mort le 17 octobre 2018 à Cracovie, est un psychiatre polonais, professeur au Collegium medicum de Cracovie jusqu'en 1993.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jerzy W. Aleksandrowicz exerce comme psychiatrie en Pologne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jerzy W. Aleksandrowicz exerce comme psychiatrie en Pologne.
 Il est le fils d'un hématologue cracovien, Julian Aleksandrowicz et fait ses études de médecine à l'Académie de médecine de Cracovie (alors séparée de l'université) et des études de philosophie à l'Université Jagellonne.
 Après un séjour à Strasbourg en 1966, il joue un rôle charnière dans l'introduction de la psychiatrie française en Pologne[réf. souhaitée]. Il contribue à faire connaître les théories du psychanalyste Jacques Lacan dans son pays, notamment. par la traduction de certains de ses ouvrages.
-Il a été président du Bureau de l'Association polonaise de psychiatrie (Polskie Towarzystwo Psychiatryczne) et du tribunal arbitral (sąd koleżeński)[2]. Il est membre de l’Association franco-polonaise de psychiatrie qu'il préside en 2002[3].
+Il a été président du Bureau de l'Association polonaise de psychiatrie (Polskie Towarzystwo Psychiatryczne) et du tribunal arbitral (sąd koleżeński). Il est membre de l’Association franco-polonaise de psychiatrie qu'il préside en 2002.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Psychoterapia medyczna : teoria i praktyka, Wydawn. Lekarskie PZWL, 1996  (ISBN 83-200-1974-5 et 978-83-200-1974-2)
 Psychopatologia nerwic 2005
@@ -587,10 +603,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Officier de l'ordre Polonia Restituta (ordre de la Renaissance de Pologne).
-Chevalier de l'ordre national du Mérite français[4].</t>
+Chevalier de l'ordre national du Mérite français.</t>
         </is>
       </c>
     </row>
